--- a/code_outputs/mid_excel/250718.xlsx
+++ b/code_outputs/mid_excel/250718.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="247">
   <si>
     <t>중분류코드</t>
   </si>
@@ -76,6 +76,9 @@
     <t>017</t>
   </si>
   <si>
+    <t>018</t>
+  </si>
+  <si>
     <t>019</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>시리얼</t>
   </si>
   <si>
+    <t>껌</t>
+  </si>
+  <si>
     <t>초콜릿</t>
   </si>
   <si>
@@ -235,12 +241,18 @@
     <t>8801771033493</t>
   </si>
   <si>
+    <t>8801771034100</t>
+  </si>
+  <si>
     <t>8800279672579</t>
   </si>
   <si>
     <t>8809948346629</t>
   </si>
   <si>
+    <t>8800271902513</t>
+  </si>
+  <si>
     <t>8801771303084</t>
   </si>
   <si>
@@ -316,6 +328,9 @@
     <t>8801117478100</t>
   </si>
   <si>
+    <t>8801062323173</t>
+  </si>
+  <si>
     <t>6942836725426</t>
   </si>
   <si>
@@ -331,12 +346,18 @@
     <t>8803465070685</t>
   </si>
   <si>
+    <t>8801043004275</t>
+  </si>
+  <si>
     <t>8801043015653</t>
   </si>
   <si>
     <t>8801045720760</t>
   </si>
   <si>
+    <t>8809015114700</t>
+  </si>
+  <si>
     <t>8809948344434</t>
   </si>
   <si>
@@ -427,6 +448,9 @@
     <t>2200000079947</t>
   </si>
   <si>
+    <t>4902430741880</t>
+  </si>
+  <si>
     <t>8801116006830</t>
   </si>
   <si>
@@ -448,6 +472,9 @@
     <t>8801116006731</t>
   </si>
   <si>
+    <t>8801116001194</t>
+  </si>
+  <si>
     <t>8801116004829</t>
   </si>
   <si>
@@ -478,12 +505,18 @@
     <t>주)3XL콘참치마요삼각1</t>
   </si>
   <si>
+    <t>주)감자탕볶음밥맛삼각1</t>
+  </si>
+  <si>
     <t>주)오일컷담백참치삼각1</t>
   </si>
   <si>
     <t>주)참치마요김치제육더블1</t>
   </si>
   <si>
+    <t>주)치즈닭갈비볶음밥맛1</t>
+  </si>
+  <si>
     <t>김)쟌슨빌잠발라야소시지1</t>
   </si>
   <si>
@@ -559,6 +592,9 @@
     <t>오리온)닥터유단백질바</t>
   </si>
   <si>
+    <t>롯데)후라보노레이디</t>
+  </si>
+  <si>
     <t>롯데)허쉬쿠키앤초코볼</t>
   </si>
   <si>
@@ -574,12 +610,18 @@
     <t>흥생)구운계란2입</t>
   </si>
   <si>
+    <t>농심)멸치칼국수</t>
+  </si>
+  <si>
     <t>농심)육개장사발면</t>
   </si>
   <si>
     <t>오뚜기)열려라참깨라면컵</t>
   </si>
   <si>
+    <t>디엔비)순살치킨고로케</t>
+  </si>
+  <si>
     <t>팔도한끼)대파나주곰탕&amp;밥</t>
   </si>
   <si>
@@ -670,6 +712,9 @@
     <t>종량(가정)20L</t>
   </si>
   <si>
+    <t>페브리즈)다우니370ml</t>
+  </si>
+  <si>
     <t>레종프렌치블랙3mg</t>
   </si>
   <si>
@@ -689,6 +734,9 @@
   </si>
   <si>
     <t>아이스볼트GT6mg</t>
+  </si>
+  <si>
+    <t>에쎄수0.5mg</t>
   </si>
   <si>
     <t>에쎄프레소1mg</t>
@@ -1064,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,13 +1152,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1133,13 +1181,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1162,13 +1210,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1191,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1220,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1238,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1249,19 +1297,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1275,22 +1323,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1304,16 +1352,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1336,13 +1384,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1362,16 +1410,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1386,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1420,16 +1468,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1444,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1452,13 +1500,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1478,16 +1526,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1502,27 +1550,27 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1536,22 +1584,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1560,27 +1608,27 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1594,22 +1642,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1618,27 +1666,27 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1647,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1655,13 +1703,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1676,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1705,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1734,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1742,16 +1790,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1763,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1771,16 +1819,16 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1800,16 +1848,16 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1821,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1829,16 +1877,16 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1850,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1858,13 +1906,13 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1879,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1887,13 +1935,13 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1908,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1916,16 +1964,16 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1937,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1945,13 +1993,13 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1966,24 +2014,24 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1995,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2024,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2053,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2082,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2111,24 +2159,24 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2140,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2169,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2177,19 +2225,19 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2198,24 +2246,24 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2227,27 +2275,27 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2256,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2285,24 +2333,24 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2314,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2322,13 +2370,13 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2343,24 +2391,24 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2372,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2380,19 +2428,19 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2401,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2409,19 +2457,19 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2430,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2438,16 +2486,16 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2459,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2467,13 +2515,13 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2488,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2496,19 +2544,19 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2517,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2525,16 +2573,16 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2546,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2554,19 +2602,19 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2575,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2583,13 +2631,13 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2604,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2612,13 +2660,13 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2633,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2641,13 +2689,13 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2670,19 +2718,19 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2691,27 +2739,27 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2720,27 +2768,27 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2749,27 +2797,27 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2778,27 +2826,27 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2807,27 +2855,27 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2836,24 +2884,24 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2865,27 +2913,27 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2894,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2902,19 +2950,19 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2923,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2931,19 +2979,19 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2952,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2960,19 +3008,19 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2981,27 +3029,27 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3010,27 +3058,27 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3039,27 +3087,27 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3068,27 +3116,27 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3097,21 +3145,21 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3126,24 +3174,24 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3160,19 +3208,19 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3184,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3192,13 +3240,13 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3213,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3221,16 +3269,16 @@
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3242,24 +3290,24 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3271,21 +3319,21 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3300,24 +3348,24 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3329,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3337,13 +3385,13 @@
         <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3358,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3366,16 +3414,16 @@
         <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3387,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3395,16 +3443,16 @@
         <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3416,21 +3464,21 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3442,6 +3490,209 @@
         <v>0</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>0</v>
       </c>
     </row>
